--- a/Output_testing/R1_201907/Country/HKD/MN/HAITI_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/HAITI_201907_HKD_MN.xlsx
@@ -553,8 +553,10 @@
       <c r="F7" s="8" t="n">
         <v>1.854508</v>
       </c>
-      <c r="G7" s="8" t="n">
-        <v>0.160091</v>
+      <c r="G7" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
       <c r="H7" s="9" t="n">
         <v>206.7821341992259</v>

--- a/Output_testing/R1_201907/Country/HKD/MN/HAITI_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/HAITI_201907_HKD_MN.xlsx
@@ -812,136 +812,455 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="11" t="n"/>
-      <c r="C18" s="12" t="n"/>
-      <c r="D18" s="13" t="n"/>
-      <c r="E18" s="12" t="n"/>
-      <c r="F18" s="13" t="n"/>
-      <c r="G18" s="12" t="n"/>
-      <c r="H18" s="13" t="n"/>
-      <c r="I18" s="12" t="n"/>
-      <c r="J18" s="13" t="n"/>
-      <c r="K18" s="13" t="n"/>
+      <c r="A18" s="11" t="inlineStr">
+        <is>
+          <t>655</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>KNITTED OR CROCHETED FABRICS (INCLUDING TUBULAR KNIT FABRICS, N.E.S., PILE FABRICS AND OPEN-WORK FABRICS), N.E.S.</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>87.416163</v>
+      </c>
+      <c r="D18" s="9" t="n">
+        <v>59.5101823348258</v>
+      </c>
+      <c r="E18" s="8" t="n">
+        <v>165.69858</v>
+      </c>
+      <c r="F18" s="9" t="n">
+        <v>60.36581120742238</v>
+      </c>
+      <c r="G18" s="8" t="n">
+        <v>110.897496</v>
+      </c>
+      <c r="H18" s="9" t="n">
+        <v>59.8754321008931</v>
+      </c>
+      <c r="I18" s="8" t="n">
+        <v>46.570384</v>
+      </c>
+      <c r="J18" s="9" t="n">
+        <v>52.78004854908423</v>
+      </c>
+      <c r="K18" s="9" t="n">
+        <v>-14.86448528620169</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="11" t="n"/>
-      <c r="C19" s="12" t="n"/>
-      <c r="D19" s="13" t="n"/>
-      <c r="E19" s="12" t="n"/>
-      <c r="F19" s="13" t="n"/>
-      <c r="G19" s="12" t="n"/>
-      <c r="H19" s="13" t="n"/>
-      <c r="I19" s="12" t="n"/>
-      <c r="J19" s="13" t="n"/>
-      <c r="K19" s="13" t="n"/>
+      <c r="A19" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>28.75503</v>
+      </c>
+      <c r="D19" s="9" t="n">
+        <v>19.57552264497569</v>
+      </c>
+      <c r="E19" s="8" t="n">
+        <v>67.671245</v>
+      </c>
+      <c r="F19" s="9" t="n">
+        <v>24.6533772337773</v>
+      </c>
+      <c r="G19" s="8" t="n">
+        <v>41.36875</v>
+      </c>
+      <c r="H19" s="9" t="n">
+        <v>22.33568719823775</v>
+      </c>
+      <c r="I19" s="8" t="n">
+        <v>27.467585</v>
+      </c>
+      <c r="J19" s="9" t="n">
+        <v>31.1300948221964</v>
+      </c>
+      <c r="K19" s="9" t="n">
+        <v>37.61442678702183</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="11" t="n"/>
-      <c r="C20" s="12" t="n"/>
-      <c r="D20" s="13" t="n"/>
-      <c r="E20" s="12" t="n"/>
-      <c r="F20" s="13" t="n"/>
-      <c r="G20" s="12" t="n"/>
-      <c r="H20" s="13" t="n"/>
-      <c r="I20" s="12" t="n"/>
-      <c r="J20" s="13" t="n"/>
-      <c r="K20" s="13" t="n"/>
+      <c r="A20" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D20" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E20" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F20" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G20" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H20" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="I20" s="8" t="n">
+        <v>4.756091</v>
+      </c>
+      <c r="J20" s="9" t="n">
+        <v>5.390265063819585</v>
+      </c>
+      <c r="K20" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="11" t="n"/>
-      <c r="C21" s="12" t="n"/>
-      <c r="D21" s="13" t="n"/>
-      <c r="E21" s="12" t="n"/>
-      <c r="F21" s="13" t="n"/>
-      <c r="G21" s="12" t="n"/>
-      <c r="H21" s="13" t="n"/>
-      <c r="I21" s="12" t="n"/>
-      <c r="J21" s="13" t="n"/>
-      <c r="K21" s="13" t="n"/>
+      <c r="A21" s="11" t="inlineStr">
+        <is>
+          <t>893</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES, N.E.S. OF PLASTICS</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>6.589892</v>
+      </c>
+      <c r="D21" s="9" t="n">
+        <v>4.486191809709263</v>
+      </c>
+      <c r="E21" s="8" t="n">
+        <v>3.638939</v>
+      </c>
+      <c r="F21" s="9" t="n">
+        <v>1.325705414429782</v>
+      </c>
+      <c r="G21" s="8" t="n">
+        <v>1.634341</v>
+      </c>
+      <c r="H21" s="9" t="n">
+        <v>0.8824083239463382</v>
+      </c>
+      <c r="I21" s="8" t="n">
+        <v>2.378652</v>
+      </c>
+      <c r="J21" s="9" t="n">
+        <v>2.695819902223188</v>
+      </c>
+      <c r="K21" s="9" t="n">
+        <v>145.9594805452641</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="11" t="n"/>
-      <c r="C22" s="12" t="n"/>
-      <c r="D22" s="13" t="n"/>
-      <c r="E22" s="12" t="n"/>
-      <c r="F22" s="13" t="n"/>
-      <c r="G22" s="12" t="n"/>
-      <c r="H22" s="13" t="n"/>
-      <c r="I22" s="12" t="n"/>
-      <c r="J22" s="13" t="n"/>
-      <c r="K22" s="13" t="n"/>
+      <c r="A22" s="11" t="inlineStr">
+        <is>
+          <t>656</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>TULLES, LACE, EMBROIDERY, RIBBONS, TRIMMINGS AND OTHER SMALL WARES</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>3.303068</v>
+      </c>
+      <c r="D22" s="9" t="n">
+        <v>2.2486251077427</v>
+      </c>
+      <c r="E22" s="8" t="n">
+        <v>5.261758</v>
+      </c>
+      <c r="F22" s="9" t="n">
+        <v>1.916916186289251</v>
+      </c>
+      <c r="G22" s="8" t="n">
+        <v>6.657654</v>
+      </c>
+      <c r="H22" s="9" t="n">
+        <v>3.59457989951585</v>
+      </c>
+      <c r="I22" s="8" t="n">
+        <v>1.754932</v>
+      </c>
+      <c r="J22" s="9" t="n">
+        <v>1.988933485288451</v>
+      </c>
+      <c r="K22" s="9" t="n">
+        <v>-56.59850678239528</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="11" t="n"/>
-      <c r="C23" s="12" t="n"/>
-      <c r="D23" s="13" t="n"/>
-      <c r="E23" s="12" t="n"/>
-      <c r="F23" s="13" t="n"/>
-      <c r="G23" s="12" t="n"/>
-      <c r="H23" s="13" t="n"/>
-      <c r="I23" s="12" t="n"/>
-      <c r="J23" s="13" t="n"/>
-      <c r="K23" s="13" t="n"/>
+      <c r="A23" s="11" t="inlineStr">
+        <is>
+          <t>892</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>PRINTED MATTER</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="n">
+        <v>4.112536</v>
+      </c>
+      <c r="D23" s="9" t="n">
+        <v>2.799685536627079</v>
+      </c>
+      <c r="E23" s="8" t="n">
+        <v>4.750033</v>
+      </c>
+      <c r="F23" s="9" t="n">
+        <v>1.730489152695371</v>
+      </c>
+      <c r="G23" s="8" t="n">
+        <v>4.757896</v>
+      </c>
+      <c r="H23" s="9" t="n">
+        <v>2.568868452098422</v>
+      </c>
+      <c r="I23" s="8" t="n">
+        <v>0.681387</v>
+      </c>
+      <c r="J23" s="9" t="n">
+        <v>0.7722426970049218</v>
+      </c>
+      <c r="K23" s="9" t="n">
+        <v>-80.11961718300046</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="11" t="n"/>
-      <c r="C24" s="12" t="n"/>
-      <c r="D24" s="13" t="n"/>
-      <c r="E24" s="12" t="n"/>
-      <c r="F24" s="13" t="n"/>
-      <c r="G24" s="12" t="n"/>
-      <c r="H24" s="13" t="n"/>
-      <c r="I24" s="12" t="n"/>
-      <c r="J24" s="13" t="n"/>
-      <c r="K24" s="13" t="n"/>
+      <c r="A24" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C24" s="8" t="n">
+        <v>0.692285</v>
+      </c>
+      <c r="D24" s="9" t="n">
+        <v>0.4712859174299938</v>
+      </c>
+      <c r="E24" s="8" t="n">
+        <v>0.806243</v>
+      </c>
+      <c r="F24" s="9" t="n">
+        <v>0.2937231732782855</v>
+      </c>
+      <c r="G24" s="8" t="n">
+        <v>0.647053</v>
+      </c>
+      <c r="H24" s="9" t="n">
+        <v>0.3493548489785485</v>
+      </c>
+      <c r="I24" s="8" t="n">
+        <v>0.550943</v>
+      </c>
+      <c r="J24" s="9" t="n">
+        <v>0.6244053793453391</v>
+      </c>
+      <c r="K24" s="9" t="n">
+        <v>110.3598633092152</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="11" t="n"/>
-      <c r="C25" s="12" t="n"/>
-      <c r="D25" s="13" t="n"/>
-      <c r="E25" s="12" t="n"/>
-      <c r="F25" s="13" t="n"/>
-      <c r="G25" s="12" t="n"/>
-      <c r="H25" s="13" t="n"/>
-      <c r="I25" s="12" t="n"/>
-      <c r="J25" s="13" t="n"/>
-      <c r="K25" s="13" t="n"/>
+      <c r="A25" s="11" t="inlineStr">
+        <is>
+          <t>874</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>MEASURING, CHECKING, ANALYSING AND CONTROLLING INSTRUMENTS AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C25" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D25" s="9" t="n">
+        <v>0.3092800005021349</v>
+      </c>
+      <c r="E25" s="8" t="n">
+        <v>1.227631</v>
+      </c>
+      <c r="F25" s="9" t="n">
+        <v>0.4472394463391247</v>
+      </c>
+      <c r="G25" s="8" t="n">
+        <v>0.688489</v>
+      </c>
+      <c r="H25" s="9" t="n">
+        <v>0.3717268455882159</v>
+      </c>
+      <c r="I25" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J25" s="9" t="n">
+        <v>0.5594752348692794</v>
+      </c>
+      <c r="K25" s="9" t="n">
+        <v>31.00715739637432</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="11" t="n"/>
-      <c r="C26" s="12" t="n"/>
-      <c r="D26" s="13" t="n"/>
-      <c r="E26" s="12" t="n"/>
-      <c r="F26" s="13" t="n"/>
-      <c r="G26" s="12" t="n"/>
-      <c r="H26" s="13" t="n"/>
-      <c r="I26" s="12" t="n"/>
-      <c r="J26" s="13" t="n"/>
-      <c r="K26" s="13" t="n"/>
+      <c r="A26" s="11" t="inlineStr">
+        <is>
+          <t>533</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>PIGMENTS, PAINTS, VARNISHES AND RELATED MATERIALS</t>
+        </is>
+      </c>
+      <c r="C26" s="8" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="D26" s="9" t="n">
+        <v>0.7760762487562102</v>
+      </c>
+      <c r="E26" s="8" t="n">
+        <v>1.116029</v>
+      </c>
+      <c r="F26" s="9" t="n">
+        <v>0.4065816129263654</v>
+      </c>
+      <c r="G26" s="8" t="n">
+        <v>1.200221</v>
+      </c>
+      <c r="H26" s="9" t="n">
+        <v>0.6480195999336723</v>
+      </c>
+      <c r="I26" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J26" s="9" t="n">
+        <v>0.5428808801640296</v>
+      </c>
+      <c r="K26" s="9" t="n">
+        <v>-43.31792654440634</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="11" t="n"/>
-      <c r="C27" s="12" t="n"/>
-      <c r="D27" s="13" t="n"/>
-      <c r="E27" s="12" t="n"/>
-      <c r="F27" s="13" t="n"/>
-      <c r="G27" s="12" t="n"/>
-      <c r="H27" s="13" t="n"/>
-      <c r="I27" s="12" t="n"/>
-      <c r="J27" s="13" t="n"/>
-      <c r="K27" s="13" t="n"/>
+      <c r="A27" s="11" t="inlineStr">
+        <is>
+          <t>899</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>MISCELLANEOUS MANUFACTURED ARTICLES, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C27" s="8" t="n">
+        <v>0.806472</v>
+      </c>
+      <c r="D27" s="9" t="n">
+        <v>0.5490208460411564</v>
+      </c>
+      <c r="E27" s="8" t="n">
+        <v>0.898015</v>
+      </c>
+      <c r="F27" s="9" t="n">
+        <v>0.3271567200602046</v>
+      </c>
+      <c r="G27" s="8" t="n">
+        <v>0.784843</v>
+      </c>
+      <c r="H27" s="9" t="n">
+        <v>0.423749998434241</v>
+      </c>
+      <c r="I27" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J27" s="9" t="n">
+        <v>0.5271127298420694</v>
+      </c>
+      <c r="K27" s="9" t="n">
+        <v>-19.15223154143671</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="11" t="n"/>
-      <c r="C28" s="12" t="n"/>
-      <c r="D28" s="13" t="n"/>
-      <c r="E28" s="12" t="n"/>
-      <c r="F28" s="13" t="n"/>
-      <c r="G28" s="12" t="n"/>
-      <c r="H28" s="13" t="n"/>
-      <c r="I28" s="12" t="n"/>
-      <c r="J28" s="13" t="n"/>
-      <c r="K28" s="13" t="n"/>
+      <c r="A28" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C28" s="8" t="n">
+        <v>13.623027</v>
+      </c>
+      <c r="D28" s="9" t="n">
+        <v>9.274129553389972</v>
+      </c>
+      <c r="E28" s="8" t="n">
+        <v>23.408311</v>
+      </c>
+      <c r="F28" s="9" t="n">
+        <v>8.527904599487989</v>
+      </c>
+      <c r="G28" s="8" t="n">
+        <v>16.564545</v>
+      </c>
+      <c r="H28" s="9" t="n">
+        <v>8.943477762831439</v>
+      </c>
+      <c r="I28" s="8" t="n">
+        <v>2.637093</v>
+      </c>
+      <c r="J28" s="9" t="n">
+        <v>2.988721256162505</v>
+      </c>
+      <c r="K28" s="9" t="n">
+        <v>-75.51722790150308</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="11" t="n"/>
@@ -973,136 +1292,581 @@
       <c r="K30" s="13" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="11" t="n"/>
-      <c r="C31" s="12" t="n"/>
-      <c r="D31" s="13" t="n"/>
-      <c r="E31" s="12" t="n"/>
-      <c r="F31" s="13" t="n"/>
-      <c r="G31" s="12" t="n"/>
-      <c r="H31" s="13" t="n"/>
-      <c r="I31" s="12" t="n"/>
-      <c r="J31" s="13" t="n"/>
-      <c r="K31" s="13" t="n"/>
+      <c r="A31" s="11" t="inlineStr">
+        <is>
+          <t>892</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>PRINTED MATTER</t>
+        </is>
+      </c>
+      <c r="C31" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D31" s="9" t="n">
+        <v>19.29627318537433</v>
+      </c>
+      <c r="E31" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F31" s="9" t="n">
+        <v>10.32712870475408</v>
+      </c>
+      <c r="G31" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H31" s="9" t="n">
+        <v>25.20889637575034</v>
+      </c>
+      <c r="I31" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J31" s="9" t="n">
+        <v>94.85480133174256</v>
+      </c>
+      <c r="K31" s="9" t="n">
+        <v>10.1900428848205</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="11" t="n"/>
-      <c r="C32" s="12" t="n"/>
-      <c r="D32" s="13" t="n"/>
-      <c r="E32" s="12" t="n"/>
-      <c r="F32" s="13" t="n"/>
-      <c r="G32" s="12" t="n"/>
-      <c r="H32" s="13" t="n"/>
-      <c r="I32" s="12" t="n"/>
-      <c r="J32" s="13" t="n"/>
-      <c r="K32" s="13" t="n"/>
+      <c r="A32" s="11" t="inlineStr">
+        <is>
+          <t>656</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>TULLES, LACE, EMBROIDERY, RIBBONS, TRIMMINGS AND OTHER SMALL WARES</t>
+        </is>
+      </c>
+      <c r="C32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D32" s="9" t="n">
+        <v>3.961991671410988</v>
+      </c>
+      <c r="E32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F32" s="9" t="n">
+        <v>2.822782226982827</v>
+      </c>
+      <c r="G32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H32" s="9" t="n">
+        <v>10.29663932428439</v>
+      </c>
+      <c r="I32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J32" s="9" t="n">
+        <v>5.145198668257429</v>
+      </c>
+      <c r="K32" s="9" t="n">
+        <v>-82.93698471226747</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="11" t="n"/>
-      <c r="C33" s="12" t="n"/>
-      <c r="D33" s="13" t="n"/>
-      <c r="E33" s="12" t="n"/>
-      <c r="F33" s="13" t="n"/>
-      <c r="G33" s="12" t="n"/>
-      <c r="H33" s="13" t="n"/>
-      <c r="I33" s="12" t="n"/>
-      <c r="J33" s="13" t="n"/>
-      <c r="K33" s="13" t="n"/>
+      <c r="A33" s="11" t="inlineStr">
+        <is>
+          <t>699</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>MANUFACTURES OF BASE METAL, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C33" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D33" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E33" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F33" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G33" s="8" t="n">
+        <v>1.076698</v>
+      </c>
+      <c r="H33" s="9" t="n">
+        <v>58.05841765039569</v>
+      </c>
+      <c r="I33" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J33" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K33" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="11" t="n"/>
-      <c r="C34" s="12" t="n"/>
-      <c r="D34" s="13" t="n"/>
-      <c r="E34" s="12" t="n"/>
-      <c r="F34" s="13" t="n"/>
-      <c r="G34" s="12" t="n"/>
-      <c r="H34" s="13" t="n"/>
-      <c r="I34" s="12" t="n"/>
-      <c r="J34" s="13" t="n"/>
-      <c r="K34" s="13" t="n"/>
+      <c r="A34" s="11" t="inlineStr">
+        <is>
+          <t>899</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>MISCELLANEOUS MANUFACTURED ARTICLES, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D34" s="9" t="n">
+        <v>12.06886771239918</v>
+      </c>
+      <c r="E34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F34" s="9" t="n">
+        <v>5.303705400147749</v>
+      </c>
+      <c r="G34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H34" s="9" t="n">
+        <v>4.578734629346435</v>
+      </c>
+      <c r="I34" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="11" t="n"/>
-      <c r="C35" s="12" t="n"/>
-      <c r="D35" s="13" t="n"/>
-      <c r="E35" s="12" t="n"/>
-      <c r="F35" s="13" t="n"/>
-      <c r="G35" s="12" t="n"/>
-      <c r="H35" s="13" t="n"/>
-      <c r="I35" s="12" t="n"/>
-      <c r="J35" s="13" t="n"/>
-      <c r="K35" s="13" t="n"/>
+      <c r="A35" s="11" t="inlineStr">
+        <is>
+          <t>658</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>MADE-UP ARTICLES, WHOLLY OR CHIEFLY OF TEXTILE MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F35" s="9" t="n">
+        <v>0.3405891961399891</v>
+      </c>
+      <c r="G35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H35" s="9" t="n">
+        <v>1.766506264734366</v>
+      </c>
+      <c r="I35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="11" t="n"/>
-      <c r="C36" s="12" t="n"/>
-      <c r="D36" s="13" t="n"/>
-      <c r="E36" s="12" t="n"/>
-      <c r="F36" s="13" t="n"/>
-      <c r="G36" s="12" t="n"/>
-      <c r="H36" s="13" t="n"/>
-      <c r="I36" s="12" t="n"/>
-      <c r="J36" s="13" t="n"/>
-      <c r="K36" s="13" t="n"/>
+      <c r="A36" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D36" s="9" t="n">
+        <v>4.60826721470687</v>
+      </c>
+      <c r="E36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F36" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H36" s="9" t="n">
+        <v>0.09080575548878733</v>
+      </c>
+      <c r="I36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K36" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="11" t="n"/>
-      <c r="C37" s="12" t="n"/>
-      <c r="D37" s="13" t="n"/>
-      <c r="E37" s="12" t="n"/>
-      <c r="F37" s="13" t="n"/>
-      <c r="G37" s="12" t="n"/>
-      <c r="H37" s="13" t="n"/>
-      <c r="I37" s="12" t="n"/>
-      <c r="J37" s="13" t="n"/>
-      <c r="K37" s="13" t="n"/>
+      <c r="A37" s="11" t="inlineStr">
+        <is>
+          <t>684</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>ALUMINIUM</t>
+        </is>
+      </c>
+      <c r="C37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E37" s="8" t="n">
+        <v>3.60151</v>
+      </c>
+      <c r="F37" s="9" t="n">
+        <v>80.23517764195005</v>
+      </c>
+      <c r="G37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="11" t="n"/>
-      <c r="C38" s="12" t="n"/>
-      <c r="D38" s="13" t="n"/>
-      <c r="E38" s="12" t="n"/>
-      <c r="F38" s="13" t="n"/>
-      <c r="G38" s="12" t="n"/>
-      <c r="H38" s="13" t="n"/>
-      <c r="I38" s="12" t="n"/>
-      <c r="J38" s="13" t="n"/>
-      <c r="K38" s="13" t="n"/>
+      <c r="A38" s="11" t="inlineStr">
+        <is>
+          <t>655</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>KNITTED OR CROCHETED FABRICS (INCLUDING TUBULAR KNIT FABRICS, N.E.S., PILE FABRICS AND OPEN-WORK FABRICS), N.E.S.</t>
+        </is>
+      </c>
+      <c r="C38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E38" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F38" s="9" t="n">
+        <v>0.9236989305570532</v>
+      </c>
+      <c r="G38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="11" t="n"/>
-      <c r="C39" s="12" t="n"/>
-      <c r="D39" s="13" t="n"/>
-      <c r="E39" s="12" t="n"/>
-      <c r="F39" s="13" t="n"/>
-      <c r="G39" s="12" t="n"/>
-      <c r="H39" s="13" t="n"/>
-      <c r="I39" s="12" t="n"/>
-      <c r="J39" s="13" t="n"/>
-      <c r="K39" s="13" t="n"/>
+      <c r="A39" s="11" t="inlineStr">
+        <is>
+          <t>848</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES OF APPAREL AND CLOTHING ACCESSORIES OF OTHER THAN TEXTILE FABRICS; HEADGEAR OF ALL MATERIALS</t>
+        </is>
+      </c>
+      <c r="C39" s="8" t="n">
+        <v>0.878837</v>
+      </c>
+      <c r="D39" s="9" t="n">
+        <v>60.06460021610863</v>
+      </c>
+      <c r="E39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="11" t="n"/>
-      <c r="C40" s="12" t="n"/>
-      <c r="D40" s="13" t="n"/>
-      <c r="E40" s="12" t="n"/>
-      <c r="F40" s="13" t="n"/>
-      <c r="G40" s="12" t="n"/>
-      <c r="H40" s="13" t="n"/>
-      <c r="I40" s="12" t="n"/>
-      <c r="J40" s="13" t="n"/>
-      <c r="K40" s="13" t="n"/>
+      <c r="A40" s="11" t="inlineStr">
+        <is>
+          <t>022</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>MILK AND CREAM AND MILK PRODUCTS OTHER THAN BUTTER OR CHEESE</t>
+        </is>
+      </c>
+      <c r="C40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="11" t="n"/>
-      <c r="C41" s="12" t="n"/>
-      <c r="D41" s="13" t="n"/>
-      <c r="E41" s="12" t="n"/>
-      <c r="F41" s="13" t="n"/>
-      <c r="G41" s="12" t="n"/>
-      <c r="H41" s="13" t="n"/>
-      <c r="I41" s="12" t="n"/>
-      <c r="J41" s="13" t="n"/>
-      <c r="K41" s="13" t="n"/>
+      <c r="A41" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="11" t="n"/>
@@ -1134,136 +1898,455 @@
       <c r="K43" s="13" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="11" t="n"/>
-      <c r="C44" s="12" t="n"/>
-      <c r="D44" s="13" t="n"/>
-      <c r="E44" s="12" t="n"/>
-      <c r="F44" s="13" t="n"/>
-      <c r="G44" s="12" t="n"/>
-      <c r="H44" s="13" t="n"/>
-      <c r="I44" s="12" t="n"/>
-      <c r="J44" s="13" t="n"/>
-      <c r="K44" s="13" t="n"/>
+      <c r="A44" s="11" t="inlineStr">
+        <is>
+          <t>655</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>KNITTED OR CROCHETED FABRICS (INCLUDING TUBULAR KNIT FABRICS, N.E.S., PILE FABRICS AND OPEN-WORK FABRICS), N.E.S.</t>
+        </is>
+      </c>
+      <c r="C44" s="8" t="n">
+        <v>87.416163</v>
+      </c>
+      <c r="D44" s="9" t="n">
+        <v>60.10890834281845</v>
+      </c>
+      <c r="E44" s="8" t="n">
+        <v>165.657118</v>
+      </c>
+      <c r="F44" s="9" t="n">
+        <v>61.35401594946244</v>
+      </c>
+      <c r="G44" s="8" t="n">
+        <v>110.897496</v>
+      </c>
+      <c r="H44" s="9" t="n">
+        <v>60.4810165490487</v>
+      </c>
+      <c r="I44" s="8" t="n">
+        <v>46.570384</v>
+      </c>
+      <c r="J44" s="9" t="n">
+        <v>52.87598537764547</v>
+      </c>
+      <c r="K44" s="9" t="n">
+        <v>-14.86448528620169</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="11" t="n"/>
-      <c r="C45" s="12" t="n"/>
-      <c r="D45" s="13" t="n"/>
-      <c r="E45" s="12" t="n"/>
-      <c r="F45" s="13" t="n"/>
-      <c r="G45" s="12" t="n"/>
-      <c r="H45" s="13" t="n"/>
-      <c r="I45" s="12" t="n"/>
-      <c r="J45" s="13" t="n"/>
-      <c r="K45" s="13" t="n"/>
+      <c r="A45" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C45" s="8" t="n">
+        <v>28.75503</v>
+      </c>
+      <c r="D45" s="9" t="n">
+        <v>19.77247002553744</v>
+      </c>
+      <c r="E45" s="8" t="n">
+        <v>67.671245</v>
+      </c>
+      <c r="F45" s="9" t="n">
+        <v>25.06323118002077</v>
+      </c>
+      <c r="G45" s="8" t="n">
+        <v>41.36875</v>
+      </c>
+      <c r="H45" s="9" t="n">
+        <v>22.56159195301812</v>
+      </c>
+      <c r="I45" s="8" t="n">
+        <v>27.467585</v>
+      </c>
+      <c r="J45" s="9" t="n">
+        <v>31.18667913108112</v>
+      </c>
+      <c r="K45" s="9" t="n">
+        <v>37.61442678702183</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="11" t="n"/>
-      <c r="C46" s="12" t="n"/>
-      <c r="D46" s="13" t="n"/>
-      <c r="E46" s="12" t="n"/>
-      <c r="F46" s="13" t="n"/>
-      <c r="G46" s="12" t="n"/>
-      <c r="H46" s="13" t="n"/>
-      <c r="I46" s="12" t="n"/>
-      <c r="J46" s="13" t="n"/>
-      <c r="K46" s="13" t="n"/>
+      <c r="A46" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C46" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D46" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E46" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F46" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G46" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H46" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="I46" s="8" t="n">
+        <v>4.756091</v>
+      </c>
+      <c r="J46" s="9" t="n">
+        <v>5.400062798940014</v>
+      </c>
+      <c r="K46" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="11" t="n"/>
-      <c r="C47" s="12" t="n"/>
-      <c r="D47" s="13" t="n"/>
-      <c r="E47" s="12" t="n"/>
-      <c r="F47" s="13" t="n"/>
-      <c r="G47" s="12" t="n"/>
-      <c r="H47" s="13" t="n"/>
-      <c r="I47" s="12" t="n"/>
-      <c r="J47" s="13" t="n"/>
-      <c r="K47" s="13" t="n"/>
+      <c r="A47" s="11" t="inlineStr">
+        <is>
+          <t>893</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES, N.E.S. OF PLASTICS</t>
+        </is>
+      </c>
+      <c r="C47" s="8" t="n">
+        <v>6.589892</v>
+      </c>
+      <c r="D47" s="9" t="n">
+        <v>4.531326937983684</v>
+      </c>
+      <c r="E47" s="8" t="n">
+        <v>3.638939</v>
+      </c>
+      <c r="F47" s="9" t="n">
+        <v>1.347744812541776</v>
+      </c>
+      <c r="G47" s="8" t="n">
+        <v>1.634341</v>
+      </c>
+      <c r="H47" s="9" t="n">
+        <v>0.8913330655165452</v>
+      </c>
+      <c r="I47" s="8" t="n">
+        <v>2.378652</v>
+      </c>
+      <c r="J47" s="9" t="n">
+        <v>2.700720019197333</v>
+      </c>
+      <c r="K47" s="9" t="n">
+        <v>145.9594805452641</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="11" t="n"/>
-      <c r="C48" s="12" t="n"/>
-      <c r="D48" s="13" t="n"/>
-      <c r="E48" s="12" t="n"/>
-      <c r="F48" s="13" t="n"/>
-      <c r="G48" s="12" t="n"/>
-      <c r="H48" s="13" t="n"/>
-      <c r="I48" s="12" t="n"/>
-      <c r="J48" s="13" t="n"/>
-      <c r="K48" s="13" t="n"/>
+      <c r="A48" s="11" t="inlineStr">
+        <is>
+          <t>656</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>TULLES, LACE, EMBROIDERY, RIBBONS, TRIMMINGS AND OTHER SMALL WARES</t>
+        </is>
+      </c>
+      <c r="C48" s="8" t="n">
+        <v>3.245098</v>
+      </c>
+      <c r="D48" s="9" t="n">
+        <v>2.231387097663661</v>
+      </c>
+      <c r="E48" s="8" t="n">
+        <v>5.135052</v>
+      </c>
+      <c r="F48" s="9" t="n">
+        <v>1.901856473860175</v>
+      </c>
+      <c r="G48" s="8" t="n">
+        <v>6.466702</v>
+      </c>
+      <c r="H48" s="9" t="n">
+        <v>3.526794786058708</v>
+      </c>
+      <c r="I48" s="8" t="n">
+        <v>1.746695</v>
+      </c>
+      <c r="J48" s="9" t="n">
+        <v>1.983196429713924</v>
+      </c>
+      <c r="K48" s="9" t="n">
+        <v>-56.28025968103296</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="11" t="n"/>
-      <c r="C49" s="12" t="n"/>
-      <c r="D49" s="13" t="n"/>
-      <c r="E49" s="12" t="n"/>
-      <c r="F49" s="13" t="n"/>
-      <c r="G49" s="12" t="n"/>
-      <c r="H49" s="13" t="n"/>
-      <c r="I49" s="12" t="n"/>
-      <c r="J49" s="13" t="n"/>
-      <c r="K49" s="13" t="n"/>
+      <c r="A49" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C49" s="8" t="n">
+        <v>0.6248590000000001</v>
+      </c>
+      <c r="D49" s="9" t="n">
+        <v>0.4296641612854272</v>
+      </c>
+      <c r="E49" s="8" t="n">
+        <v>0.804137</v>
+      </c>
+      <c r="F49" s="9" t="n">
+        <v>0.2978262263596356</v>
+      </c>
+      <c r="G49" s="8" t="n">
+        <v>0.645369</v>
+      </c>
+      <c r="H49" s="9" t="n">
+        <v>0.3519698331984251</v>
+      </c>
+      <c r="I49" s="8" t="n">
+        <v>0.550943</v>
+      </c>
+      <c r="J49" s="9" t="n">
+        <v>0.6255403436638214</v>
+      </c>
+      <c r="K49" s="9" t="n">
+        <v>111.721190833945</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="11" t="n"/>
-      <c r="C50" s="12" t="n"/>
-      <c r="D50" s="13" t="n"/>
-      <c r="E50" s="12" t="n"/>
-      <c r="F50" s="13" t="n"/>
-      <c r="G50" s="12" t="n"/>
-      <c r="H50" s="13" t="n"/>
-      <c r="I50" s="12" t="n"/>
-      <c r="J50" s="13" t="n"/>
-      <c r="K50" s="13" t="n"/>
+      <c r="A50" s="11" t="inlineStr">
+        <is>
+          <t>892</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>PRINTED MATTER</t>
+        </is>
+      </c>
+      <c r="C50" s="8" t="n">
+        <v>3.830202</v>
+      </c>
+      <c r="D50" s="9" t="n">
+        <v>2.633715013921166</v>
+      </c>
+      <c r="E50" s="8" t="n">
+        <v>4.28648</v>
+      </c>
+      <c r="F50" s="9" t="n">
+        <v>1.587572966753241</v>
+      </c>
+      <c r="G50" s="8" t="n">
+        <v>4.290395</v>
+      </c>
+      <c r="H50" s="9" t="n">
+        <v>2.339885573223004</v>
+      </c>
+      <c r="I50" s="8" t="n">
+        <v>0.529533</v>
+      </c>
+      <c r="J50" s="9" t="n">
+        <v>0.6012314428195555</v>
+      </c>
+      <c r="K50" s="9" t="n">
+        <v>-83.9029274783159</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="11" t="n"/>
-      <c r="C51" s="12" t="n"/>
-      <c r="D51" s="13" t="n"/>
-      <c r="E51" s="12" t="n"/>
-      <c r="F51" s="13" t="n"/>
-      <c r="G51" s="12" t="n"/>
-      <c r="H51" s="13" t="n"/>
-      <c r="I51" s="12" t="n"/>
-      <c r="J51" s="13" t="n"/>
-      <c r="K51" s="13" t="n"/>
+      <c r="A51" s="11" t="inlineStr">
+        <is>
+          <t>874</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t>MEASURING, CHECKING, ANALYSING AND CONTROLLING INSTRUMENTS AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C51" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D51" s="9" t="n">
+        <v>0.3123916357347536</v>
+      </c>
+      <c r="E51" s="8" t="n">
+        <v>1.227631</v>
+      </c>
+      <c r="F51" s="9" t="n">
+        <v>0.4546746488373323</v>
+      </c>
+      <c r="G51" s="8" t="n">
+        <v>0.688489</v>
+      </c>
+      <c r="H51" s="9" t="n">
+        <v>0.3754865177734761</v>
+      </c>
+      <c r="I51" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J51" s="9" t="n">
+        <v>0.5604921774672385</v>
+      </c>
+      <c r="K51" s="9" t="n">
+        <v>31.00715739637432</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="11" t="n"/>
-      <c r="C52" s="12" t="n"/>
-      <c r="D52" s="13" t="n"/>
-      <c r="E52" s="12" t="n"/>
-      <c r="F52" s="13" t="n"/>
-      <c r="G52" s="12" t="n"/>
-      <c r="H52" s="13" t="n"/>
-      <c r="I52" s="12" t="n"/>
-      <c r="J52" s="13" t="n"/>
-      <c r="K52" s="13" t="n"/>
+      <c r="A52" s="11" t="inlineStr">
+        <is>
+          <t>533</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="inlineStr">
+        <is>
+          <t>PIGMENTS, PAINTS, VARNISHES AND RELATED MATERIALS</t>
+        </is>
+      </c>
+      <c r="C52" s="8" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="D52" s="9" t="n">
+        <v>0.7838842744769412</v>
+      </c>
+      <c r="E52" s="8" t="n">
+        <v>1.116029</v>
+      </c>
+      <c r="F52" s="9" t="n">
+        <v>0.4133408928800911</v>
+      </c>
+      <c r="G52" s="8" t="n">
+        <v>1.200221</v>
+      </c>
+      <c r="H52" s="9" t="n">
+        <v>0.6545737170072422</v>
+      </c>
+      <c r="I52" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J52" s="9" t="n">
+        <v>0.5438676596642613</v>
+      </c>
+      <c r="K52" s="9" t="n">
+        <v>-43.31792654440634</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="11" t="n"/>
-      <c r="C53" s="12" t="n"/>
-      <c r="D53" s="13" t="n"/>
-      <c r="E53" s="12" t="n"/>
-      <c r="F53" s="13" t="n"/>
-      <c r="G53" s="12" t="n"/>
-      <c r="H53" s="13" t="n"/>
-      <c r="I53" s="12" t="n"/>
-      <c r="J53" s="13" t="n"/>
-      <c r="K53" s="13" t="n"/>
+      <c r="A53" s="11" t="inlineStr">
+        <is>
+          <t>899</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <t>MISCELLANEOUS MANUFACTURED ARTICLES, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C53" s="8" t="n">
+        <v>0.6298859999999999</v>
+      </c>
+      <c r="D53" s="9" t="n">
+        <v>0.4331208158887567</v>
+      </c>
+      <c r="E53" s="8" t="n">
+        <v>0.659948</v>
+      </c>
+      <c r="F53" s="9" t="n">
+        <v>0.2444233040310156</v>
+      </c>
+      <c r="G53" s="8" t="n">
+        <v>0.6999300000000001</v>
+      </c>
+      <c r="H53" s="9" t="n">
+        <v>0.3817261835485957</v>
+      </c>
+      <c r="I53" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J53" s="9" t="n">
+        <v>0.5280708480133378</v>
+      </c>
+      <c r="K53" s="9" t="n">
+        <v>-19.15223154143671</v>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="11" t="n"/>
-      <c r="C54" s="12" t="n"/>
-      <c r="D54" s="13" t="n"/>
-      <c r="E54" s="12" t="n"/>
-      <c r="F54" s="13" t="n"/>
-      <c r="G54" s="12" t="n"/>
-      <c r="H54" s="13" t="n"/>
-      <c r="I54" s="12" t="n"/>
-      <c r="J54" s="13" t="n"/>
-      <c r="K54" s="13" t="n"/>
+      <c r="A54" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C54" s="8" t="n">
+        <v>12.74419</v>
+      </c>
+      <c r="D54" s="9" t="n">
+        <v>8.763131694689728</v>
+      </c>
+      <c r="E54" s="8" t="n">
+        <v>19.791513</v>
+      </c>
+      <c r="F54" s="9" t="n">
+        <v>7.330133585120037</v>
+      </c>
+      <c r="G54" s="8" t="n">
+        <v>15.455087</v>
+      </c>
+      <c r="H54" s="9" t="n">
+        <v>8.428859138658888</v>
+      </c>
+      <c r="I54" s="8" t="n">
+        <v>2.637093</v>
+      </c>
+      <c r="J54" s="9" t="n">
+        <v>2.99415377179392</v>
+      </c>
+      <c r="K54" s="9" t="n">
+        <v>-75.51722790150308</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="11" t="n"/>
@@ -1295,136 +2378,517 @@
       <c r="K56" s="13" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="11" t="n"/>
-      <c r="C57" s="12" t="n"/>
-      <c r="D57" s="13" t="n"/>
-      <c r="E57" s="12" t="n"/>
-      <c r="F57" s="13" t="n"/>
-      <c r="G57" s="12" t="n"/>
-      <c r="H57" s="13" t="n"/>
-      <c r="I57" s="12" t="n"/>
-      <c r="J57" s="13" t="n"/>
-      <c r="K57" s="13" t="n"/>
+      <c r="A57" s="11" t="inlineStr">
+        <is>
+          <t>036</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="inlineStr">
+        <is>
+          <t>CRUSTACEANS, MOLLUSCS &amp; AQUATIC INVERTEBRATES; CRUSTACEANS, IN SHELL, COOKED BY BOILING IN WATER; FLOURS, MEALS &amp; PELLETS OF CRUSTACEANS, FIT FOR HUMAN CONSUMPTION</t>
+        </is>
+      </c>
+      <c r="C57" s="8" t="n">
+        <v>11.790491</v>
+      </c>
+      <c r="D57" s="9" t="n">
+        <v>54.82920553418024</v>
+      </c>
+      <c r="E57" s="8" t="n">
+        <v>7.503816</v>
+      </c>
+      <c r="F57" s="9" t="n">
+        <v>61.85901108559786</v>
+      </c>
+      <c r="G57" s="8" t="n">
+        <v>7.543473</v>
+      </c>
+      <c r="H57" s="9" t="n">
+        <v>28.74108236480346</v>
+      </c>
+      <c r="I57" s="8" t="n">
+        <v>3.592599</v>
+      </c>
+      <c r="J57" s="9" t="n">
+        <v>46.55217587361481</v>
+      </c>
+      <c r="K57" s="9" t="n">
+        <v>-29.30353950745849</v>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="11" t="n"/>
-      <c r="C58" s="12" t="n"/>
-      <c r="D58" s="13" t="n"/>
-      <c r="E58" s="12" t="n"/>
-      <c r="F58" s="13" t="n"/>
-      <c r="G58" s="12" t="n"/>
-      <c r="H58" s="13" t="n"/>
-      <c r="I58" s="12" t="n"/>
-      <c r="J58" s="13" t="n"/>
-      <c r="K58" s="13" t="n"/>
+      <c r="A58" s="11" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="inlineStr">
+        <is>
+          <t>NON-FERROUS BASE METAL WASTE AND SCRAP, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C58" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D58" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E58" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F58" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G58" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H58" s="9" t="n">
+        <v>0.8689603124370863</v>
+      </c>
+      <c r="I58" s="8" t="n">
+        <v>2.646667</v>
+      </c>
+      <c r="J58" s="9" t="n">
+        <v>34.29497911202795</v>
+      </c>
+      <c r="K58" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="11" t="n"/>
-      <c r="C59" s="12" t="n"/>
-      <c r="D59" s="13" t="n"/>
-      <c r="E59" s="12" t="n"/>
-      <c r="F59" s="13" t="n"/>
-      <c r="G59" s="12" t="n"/>
-      <c r="H59" s="13" t="n"/>
-      <c r="I59" s="12" t="n"/>
-      <c r="J59" s="13" t="n"/>
-      <c r="K59" s="13" t="n"/>
+      <c r="A59" s="11" t="inlineStr">
+        <is>
+          <t>845</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES OF APPAREL, OF TEXTILE FABRICS, WHETHER OR NOT KNITTED OR CROCHETED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C59" s="8" t="n">
+        <v>0.923872</v>
+      </c>
+      <c r="D59" s="9" t="n">
+        <v>4.296272969062455</v>
+      </c>
+      <c r="E59" s="8" t="n">
+        <v>2.783333</v>
+      </c>
+      <c r="F59" s="9" t="n">
+        <v>22.94488922728254</v>
+      </c>
+      <c r="G59" s="8" t="n">
+        <v>13.115919</v>
+      </c>
+      <c r="H59" s="9" t="n">
+        <v>49.97243421817652</v>
+      </c>
+      <c r="I59" s="8" t="n">
+        <v>1.018695</v>
+      </c>
+      <c r="J59" s="9" t="n">
+        <v>13.20004509314066</v>
+      </c>
+      <c r="K59" s="9" t="n">
+        <v>-87.40656869282583</v>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="11" t="n"/>
-      <c r="C60" s="12" t="n"/>
-      <c r="D60" s="13" t="n"/>
-      <c r="E60" s="12" t="n"/>
-      <c r="F60" s="13" t="n"/>
-      <c r="G60" s="12" t="n"/>
-      <c r="H60" s="13" t="n"/>
-      <c r="I60" s="12" t="n"/>
-      <c r="J60" s="13" t="n"/>
-      <c r="K60" s="13" t="n"/>
+      <c r="A60" s="11" t="inlineStr">
+        <is>
+          <t>841</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="inlineStr">
+        <is>
+          <t>MEN'S OR BOYS' COATS, JACKETS, SUITS, BLAZERS, TROUSERS, SHORTS, SHIRTS, UNDERWEAR, NIGHTWEAR AND SIMILAR ARTICLES OF TEXTILE FABRICS, NOT KNITTED OR CROCHETED</t>
+        </is>
+      </c>
+      <c r="C60" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D60" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E60" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F60" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G60" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H60" s="9" t="n">
+        <v>0.1115280671094769</v>
+      </c>
+      <c r="I60" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J60" s="9" t="n">
+        <v>5.181253692972727</v>
+      </c>
+      <c r="K60" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="11" t="n"/>
-      <c r="C61" s="12" t="n"/>
-      <c r="D61" s="13" t="n"/>
-      <c r="E61" s="12" t="n"/>
-      <c r="F61" s="13" t="n"/>
-      <c r="G61" s="12" t="n"/>
-      <c r="H61" s="13" t="n"/>
-      <c r="I61" s="12" t="n"/>
-      <c r="J61" s="13" t="n"/>
-      <c r="K61" s="13" t="n"/>
+      <c r="A61" s="11" t="inlineStr">
+        <is>
+          <t>843</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <t>MEN'S OR BOYS' COATS, CAPES, JACKETS, SUITS, BLAZERS, TROUSERS, SHORTS, SHIRTS, UNDERWEAR, NIGHTWEAR AND SIMILAR ARTICLES OF TEXTILE FABRICS, KNITTED OR CROCHETED</t>
+        </is>
+      </c>
+      <c r="C61" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D61" s="9" t="n">
+        <v>0.9565321557806317</v>
+      </c>
+      <c r="E61" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F61" s="9" t="n">
+        <v>0.656806463435927</v>
+      </c>
+      <c r="G61" s="8" t="n">
+        <v>1.206683</v>
+      </c>
+      <c r="H61" s="9" t="n">
+        <v>4.597534251293554</v>
+      </c>
+      <c r="I61" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J61" s="9" t="n">
+        <v>0.307086879451004</v>
+      </c>
+      <c r="K61" s="9" t="n">
+        <v>-96.64119822160239</v>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="11" t="n"/>
-      <c r="C62" s="12" t="n"/>
-      <c r="D62" s="13" t="n"/>
-      <c r="E62" s="12" t="n"/>
-      <c r="F62" s="13" t="n"/>
-      <c r="G62" s="12" t="n"/>
-      <c r="H62" s="13" t="n"/>
-      <c r="I62" s="12" t="n"/>
-      <c r="J62" s="13" t="n"/>
-      <c r="K62" s="13" t="n"/>
+      <c r="A62" s="11" t="inlineStr">
+        <is>
+          <t>579</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="inlineStr">
+        <is>
+          <t>WASTE, PARINGS AND SCRAP, OF PLASTICS</t>
+        </is>
+      </c>
+      <c r="C62" s="8" t="n">
+        <v>1.200147</v>
+      </c>
+      <c r="D62" s="9" t="n">
+        <v>5.581031912430942</v>
+      </c>
+      <c r="E62" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F62" s="9" t="n">
+        <v>3.268328118660099</v>
+      </c>
+      <c r="G62" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H62" s="9" t="n">
+        <v>0.05572212289819962</v>
+      </c>
+      <c r="I62" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J62" s="9" t="n">
+        <v>0.2905268122777738</v>
+      </c>
+      <c r="K62" s="9" t="n">
+        <v>53.30598290598289</v>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="11" t="n"/>
-      <c r="C63" s="12" t="n"/>
-      <c r="D63" s="13" t="n"/>
-      <c r="E63" s="12" t="n"/>
-      <c r="F63" s="13" t="n"/>
-      <c r="G63" s="12" t="n"/>
-      <c r="H63" s="13" t="n"/>
-      <c r="I63" s="12" t="n"/>
-      <c r="J63" s="13" t="n"/>
-      <c r="K63" s="13" t="n"/>
+      <c r="A63" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B63" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C63" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D63" s="9" t="n">
+        <v>0.6344344507639823</v>
+      </c>
+      <c r="E63" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F63" s="9" t="n">
+        <v>0.251885451844827</v>
+      </c>
+      <c r="G63" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H63" s="9" t="n">
+        <v>0.5739207205828721</v>
+      </c>
+      <c r="I63" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J63" s="9" t="n">
+        <v>0.1313920822664746</v>
+      </c>
+      <c r="K63" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="11" t="n"/>
-      <c r="C64" s="12" t="n"/>
-      <c r="D64" s="13" t="n"/>
-      <c r="E64" s="12" t="n"/>
-      <c r="F64" s="13" t="n"/>
-      <c r="G64" s="12" t="n"/>
-      <c r="H64" s="13" t="n"/>
-      <c r="I64" s="12" t="n"/>
-      <c r="J64" s="13" t="n"/>
-      <c r="K64" s="13" t="n"/>
+      <c r="A64" s="11" t="inlineStr">
+        <is>
+          <t>844</t>
+        </is>
+      </c>
+      <c r="B64" s="1" t="inlineStr">
+        <is>
+          <t>WOMEN'S OR GIRLS' COATS, CAPES, JACKETS, SUITS, TROUSERS, SHORTS, SHIRTS, DRESSES AND SKIRTS, UNDERWEAR, NIGHTWEAR AND SIMILAR ARTICLES, OF TEXTILE FABRICS, KNITTED OR CROCHETED</t>
+        </is>
+      </c>
+      <c r="C64" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D64" s="9" t="n">
+        <v>0.800370758342365</v>
+      </c>
+      <c r="E64" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F64" s="9" t="n">
+        <v>0.9182957952152728</v>
+      </c>
+      <c r="G64" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H64" s="9" t="n">
+        <v>0.1599577357699224</v>
+      </c>
+      <c r="I64" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J64" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="K64" s="9" t="n">
+        <v>-89.66469296786642</v>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="11" t="n"/>
-      <c r="C65" s="12" t="n"/>
-      <c r="D65" s="13" t="n"/>
-      <c r="E65" s="12" t="n"/>
-      <c r="F65" s="13" t="n"/>
-      <c r="G65" s="12" t="n"/>
-      <c r="H65" s="13" t="n"/>
-      <c r="I65" s="12" t="n"/>
-      <c r="J65" s="13" t="n"/>
-      <c r="K65" s="13" t="n"/>
+      <c r="A65" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C65" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D65" s="9" t="n">
+        <v>0.1144389931675145</v>
+      </c>
+      <c r="E65" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F65" s="9" t="n">
+        <v>0.2149125750153703</v>
+      </c>
+      <c r="G65" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H65" s="9" t="n">
+        <v>0.1260977353462437</v>
+      </c>
+      <c r="I65" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J65" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="K65" s="9" t="n">
+        <v>-99.3334343281321</v>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="11" t="n"/>
-      <c r="C66" s="12" t="n"/>
-      <c r="D66" s="13" t="n"/>
-      <c r="E66" s="12" t="n"/>
-      <c r="F66" s="13" t="n"/>
-      <c r="G66" s="12" t="n"/>
-      <c r="H66" s="13" t="n"/>
-      <c r="I66" s="12" t="n"/>
-      <c r="J66" s="13" t="n"/>
-      <c r="K66" s="13" t="n"/>
+      <c r="A66" s="11" t="inlineStr">
+        <is>
+          <t>611</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="inlineStr">
+        <is>
+          <t>LEATHER</t>
+        </is>
+      </c>
+      <c r="C66" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D66" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E66" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F66" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G66" s="8" t="n">
+        <v>3.28305</v>
+      </c>
+      <c r="H66" s="9" t="n">
+        <v>12.50861644997841</v>
+      </c>
+      <c r="I66" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J66" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K66" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="11" t="n"/>
-      <c r="C67" s="12" t="n"/>
-      <c r="D67" s="13" t="n"/>
-      <c r="E67" s="12" t="n"/>
-      <c r="F67" s="13" t="n"/>
-      <c r="G67" s="12" t="n"/>
-      <c r="H67" s="13" t="n"/>
-      <c r="I67" s="12" t="n"/>
-      <c r="J67" s="13" t="n"/>
-      <c r="K67" s="13" t="n"/>
+      <c r="A67" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C67" s="8" t="n">
+        <v>7.050681</v>
+      </c>
+      <c r="D67" s="9" t="n">
+        <v>32.78771322627187</v>
+      </c>
+      <c r="E67" s="8" t="n">
+        <v>1.199207</v>
+      </c>
+      <c r="F67" s="9" t="n">
+        <v>9.885871282948109</v>
+      </c>
+      <c r="G67" s="8" t="n">
+        <v>0.599504</v>
+      </c>
+      <c r="H67" s="9" t="n">
+        <v>2.284146021604258</v>
+      </c>
+      <c r="I67" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J67" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K67" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="11" t="n"/>
